--- a/Mining OC.xlsx
+++ b/Mining OC.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\eth-gpu-mining-profitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42667C64-18D5-4A1C-BCE4-34E3C763B4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8959A-0447-4D98-8CBB-4B048B8AFB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="3795" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="10335" windowWidth="19200" windowHeight="10245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="1080 Ti" sheetId="2" r:id="rId2"/>
+    <sheet name="3080" sheetId="4" r:id="rId3"/>
+    <sheet name="Gigabyte 2070" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>3060 Ti</t>
   </si>
@@ -106,6 +109,24 @@
   </si>
   <si>
     <t>LHR card</t>
+  </si>
+  <si>
+    <t>Straps</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Mem</t>
+  </si>
+  <si>
+    <t>Rej Shares</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>CRASH</t>
   </si>
 </sst>
 </file>
@@ -447,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -686,4 +707,647 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38DD1997-9111-4853-B509-5670C793684E}">
+  <dimension ref="A3:G22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>38.5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>-50</v>
+      </c>
+      <c r="E4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>-200</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>43.776000000000003</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <v>450</v>
+      </c>
+      <c r="F6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42.56</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>450</v>
+      </c>
+      <c r="F7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42.6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>43.8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>43.787999999999997</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>42.3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>42.58</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>42.69</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>44.145000000000003</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>175</v>
+      </c>
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>44.118000000000002</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>175</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44.155000000000001</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>175</v>
+      </c>
+      <c r="E16">
+        <v>-100</v>
+      </c>
+      <c r="F16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>44.125999999999998</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>175</v>
+      </c>
+      <c r="E17">
+        <v>-200</v>
+      </c>
+      <c r="F17">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>43.177999999999997</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>175</v>
+      </c>
+      <c r="E18">
+        <v>-400</v>
+      </c>
+      <c r="F18">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>44.116999999999997</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>175</v>
+      </c>
+      <c r="E19">
+        <v>-300</v>
+      </c>
+      <c r="F19">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>43.668999999999997</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>175</v>
+      </c>
+      <c r="E20">
+        <v>-350</v>
+      </c>
+      <c r="F20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>43.83</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>175</v>
+      </c>
+      <c r="E21">
+        <v>-300</v>
+      </c>
+      <c r="F21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2949E8-F615-4C37-ABB1-3C6479A6E22E}">
+  <dimension ref="A3:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>92.8</v>
+      </c>
+      <c r="B4">
+        <v>-10</v>
+      </c>
+      <c r="C4">
+        <v>-50</v>
+      </c>
+      <c r="D4">
+        <v>625</v>
+      </c>
+      <c r="E4">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>92.82</v>
+      </c>
+      <c r="B5">
+        <v>-20</v>
+      </c>
+      <c r="C5">
+        <v>-50</v>
+      </c>
+      <c r="D5">
+        <v>625</v>
+      </c>
+      <c r="E5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>-30</v>
+      </c>
+      <c r="C6">
+        <v>-50</v>
+      </c>
+      <c r="D6">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>92.781999999999996</v>
+      </c>
+      <c r="B7">
+        <v>-30</v>
+      </c>
+      <c r="C7">
+        <v>-50</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>92.825000000000003</v>
+      </c>
+      <c r="B8">
+        <v>-40</v>
+      </c>
+      <c r="C8">
+        <v>-50</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8">
+        <v>221.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>-50</v>
+      </c>
+      <c r="C9">
+        <v>-50</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>184.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>83.5</v>
+      </c>
+      <c r="B10">
+        <v>-45</v>
+      </c>
+      <c r="C10">
+        <v>-50</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10">
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>92.6</v>
+      </c>
+      <c r="B11">
+        <v>-40</v>
+      </c>
+      <c r="C11">
+        <v>-50</v>
+      </c>
+      <c r="D11">
+        <v>600</v>
+      </c>
+      <c r="E11">
+        <v>221.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79FF27-9B2C-48AE-92F7-762BEBB35EE8}">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42.625999999999998</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>-100</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42.777000000000001</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>-100</v>
+      </c>
+      <c r="D5">
+        <v>925</v>
+      </c>
+      <c r="E5">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>